--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23416"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A81E9A44-B5AE-4AFB-8E89-0D12CB261AC7}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7CF571C-6C7E-44CB-BEF4-C635E5573C27}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
   <si>
     <t>改定履歴</t>
   </si>
@@ -683,6 +683,15 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+  </si>
+  <si>
+    <t>on update current_timestamp</t>
+  </si>
+  <si>
     <t>rooms</t>
   </si>
   <si>
@@ -946,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -998,6 +1007,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30122,61 +30132,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30207,11 +30217,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30239,11 +30249,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30267,11 +30277,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30293,11 +30303,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30325,11 +30335,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30351,11 +30361,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30379,11 +30389,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30405,11 +30415,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30433,8 +30443,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30456,7 +30466,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="D13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -30473,49 +30483,49 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30548,7 +30558,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30564,7 +30574,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30580,7 +30590,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30596,7 +30606,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30612,7 +30622,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30628,7 +30638,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30644,7 +30654,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30660,7 +30670,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30676,7 +30686,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30692,7 +30702,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30708,7 +30718,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30724,7 +30734,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30758,9 +30768,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30771,62 +30781,64 @@
     <col min="4" max="4" width="25" style="23" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="23" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="23" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="23"/>
+    <col min="9" max="9" width="14.42578125" style="23"/>
+    <col min="10" max="10" width="24.85546875" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30859,7 +30871,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30889,7 +30901,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30915,7 +30927,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30941,7 +30953,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30967,7 +30979,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30991,7 +31003,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31015,7 +31027,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31039,7 +31051,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31069,7 +31081,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31093,7 +31105,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31105,19 +31117,23 @@
         <v>77</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31133,7 +31149,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31168,8 +31184,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31180,9 +31196,10 @@
     <col min="4" max="4" width="25" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="25" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="25" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="25"/>
+    <col min="9" max="9" width="14.42578125" style="25"/>
+    <col min="10" max="10" width="24.5703125" style="25" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="25"/>
   </cols>
@@ -31191,31 +31208,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31248,12 +31287,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -31277,12 +31317,13 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>62</v>
@@ -31302,15 +31343,16 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>58</v>
@@ -31325,15 +31367,16 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>71</v>
@@ -31350,10 +31393,11 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31383,6 +31427,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31406,15 +31451,16 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>52</v>
@@ -31431,6 +31477,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31442,27 +31489,32 @@
         <v>77</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="H12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>52</v>
@@ -31479,6 +31531,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31494,6 +31547,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31509,6 +31563,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31543,8 +31598,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31555,10 +31610,10 @@
     <col min="4" max="4" width="25" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="25" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="25" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="25"/>
-    <col min="10" max="10" width="13.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="25" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="25"/>
   </cols>
@@ -31567,31 +31622,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31624,12 +31701,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -31653,15 +31731,16 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -31674,21 +31753,22 @@
         <v>53</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -31701,21 +31781,22 @@
         <v>53</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>58</v>
@@ -31732,15 +31813,16 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
@@ -31755,6 +31837,7 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31784,12 +31867,13 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>74</v>
@@ -31807,6 +31891,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31818,27 +31903,32 @@
         <v>77</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="H12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>52</v>
@@ -31855,6 +31945,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31870,6 +31961,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31885,6 +31977,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31918,9 +32011,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31931,10 +32024,10 @@
     <col min="4" max="4" width="25" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="25" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="25"/>
-    <col min="10" max="10" width="13.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="25" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="25"/>
   </cols>
@@ -31943,31 +32036,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32000,12 +32115,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -32029,15 +32145,16 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32050,21 +32167,22 @@
         <v>53</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -32077,21 +32195,22 @@
         <v>53</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>52</v>
@@ -32104,21 +32223,22 @@
         <v>53</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
@@ -32135,15 +32255,16 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>75</v>
@@ -32156,15 +32277,16 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>71</v>
@@ -32181,10 +32303,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32214,6 +32337,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32237,6 +32361,7 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32248,27 +32373,32 @@
         <v>77</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>52</v>
@@ -32285,6 +32415,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32343,31 +32474,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32400,6 +32553,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32408,7 +32562,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -32421,21 +32575,22 @@
         <v>53</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32448,21 +32603,22 @@
         <v>53</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>75</v>
@@ -32477,6 +32633,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32492,6 +32649,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32507,6 +32665,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32522,6 +32681,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32537,6 +32697,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32552,6 +32713,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32567,6 +32729,7 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32582,6 +32745,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32597,6 +32761,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
